--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -94,73 +94,73 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>care</t>
@@ -535,7 +535,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +617,13 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8184931506849316</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
@@ -767,13 +767,13 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5387596899224806</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5343915343915344</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5033557046979866</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4533333333333333</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.257936507936508</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1447721179624665</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,37 +1243,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0119201030927835</v>
+        <v>0.01063486948114728</v>
       </c>
       <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
         <v>37</v>
       </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
       <c r="E16">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F16">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1293,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1319,13 +1319,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1345,13 +1345,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1371,13 +1371,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1397,13 +1397,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1423,13 +1423,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6352941176470588</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L22">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M22">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1449,25 +1449,25 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5932203389830508</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L23">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M23">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1475,13 +1475,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5851063829787234</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1501,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1527,13 +1527,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5690376569037657</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L26">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M26">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1553,13 +1553,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1605,13 +1605,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1631,13 +1631,13 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>0.3424657534246575</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
